--- a/ResultadoEleicoesDistritos/VIANA DO CASTELO_VILA NOVA DE CERVEIRA.xlsx
+++ b/ResultadoEleicoesDistritos/VIANA DO CASTELO_VILA NOVA DE CERVEIRA.xlsx
@@ -597,64 +597,64 @@
         <v>2513</v>
       </c>
       <c r="H2" t="n">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="I2" t="n">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="J2" t="n">
-        <v>993</v>
+        <v>1046</v>
       </c>
       <c r="K2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="M2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N2" t="n">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2</v>
       </c>
       <c r="Q2" t="n">
         <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S2" t="n">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="T2" t="n">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="U2" t="n">
         <v>16</v>
       </c>
       <c r="V2" t="n">
-        <v>1647</v>
+        <v>1626</v>
       </c>
       <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1572</v>
+      </c>
+      <c r="Y2" t="n">
         <v>0</v>
       </c>
-      <c r="X2" t="n">
-        <v>1621</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>4</v>
-      </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AA2" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
